--- a/Query_Table Test_Cases.xlsx
+++ b/Query_Table Test_Cases.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E632A3-83EE-4213-A588-EF620024E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{D5E632A3-83EE-4213-A588-EF620024E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED02082-6FA7-4709-B8E2-34947639648E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Nbr</t>
   </si>
@@ -68,6 +68,12 @@
     <t>1. UI should be perfect.                 2. Query button should be aligned.</t>
   </si>
   <si>
+    <t>UI is perfect.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>TC-02</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>User should able to click on the run queries button.</t>
   </si>
   <si>
+    <t>As Expected</t>
+  </si>
+  <si>
     <t>TC-03</t>
   </si>
   <si>
@@ -95,7 +104,7 @@
     <t>1. Click on the run queries button.                 2. Check if the button is redirecting on the query table.</t>
   </si>
   <si>
-    <t>User should able to see the query table.</t>
+    <t>User should be able to see the query table.</t>
   </si>
   <si>
     <t>TC-04</t>
@@ -143,6 +152,12 @@
     <t>1. UI should be perfect.                 2. Result set is table is properly aligned.</t>
   </si>
   <si>
+    <t>UI is not perfectly aligned.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>TC-08</t>
   </si>
   <si>
@@ -152,6 +167,9 @@
     <t xml:space="preserve">1. Check each column contains proper data in the result set table.                     </t>
   </si>
   <si>
+    <t>Columns are missing.</t>
+  </si>
+  <si>
     <t>TC-09</t>
   </si>
   <si>
@@ -161,22 +179,19 @@
     <t>1. Check all the fields in the result set table contains accurate data.           2. All the data is completely visible.</t>
   </si>
   <si>
+    <t>Colums are missing</t>
+  </si>
+  <si>
     <t>TC-10</t>
   </si>
   <si>
     <t>Check the required buttons in the result set table.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Check if the Go Back button is  exist which is redirecting to the query table page. </t>
-  </si>
-  <si>
-    <t>TC-11</t>
-  </si>
-  <si>
-    <t>Check if the required button is working.</t>
-  </si>
-  <si>
-    <t>1. Check if the Go Back button is redirecting to the query table page.                         2. Check if the button is redirecting to the another page.</t>
+    <t xml:space="preserve">1. Check if the Go Back button   exist's which  redirects to the query table page. </t>
+  </si>
+  <si>
+    <t>Button is missing.</t>
   </si>
 </sst>
 </file>
@@ -557,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,25 +634,37 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="60.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="76.5">
@@ -645,19 +672,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="91.5">
@@ -665,19 +698,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="121.5">
@@ -685,39 +724,51 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="152.25">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="121.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="76.5">
@@ -725,19 +776,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="76.5">
@@ -745,79 +802,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="121.5">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="106.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="91.5">
+    </row>
+    <row r="11" spans="1:8" ht="76.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="152.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
